--- a/output/charls_education.xlsx
+++ b/output/charls_education.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -38,13 +38,7 @@
     <t xml:space="preserve">job_parent2 Public</t>
   </si>
   <si>
-    <t xml:space="preserve">asset_total_quant(1.01e+05,3.02e+05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset_total_quant(3.02e+05,7.21e+05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset_total_quant(7.21e+05,2.14e+07]</t>
+    <t xml:space="preserve">asset_total_logged</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -68,34 +62,28 @@
     <t xml:space="preserve">Model 1</t>
   </si>
   <si>
-    <t xml:space="preserve">12.29 *** (0.83)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.10 *** (0.03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.29 * (0.15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10 *** (0.20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22 *** (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51 * (0.23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50 * (0.23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18 (0.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55 * (0.22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34 *** (0.23)</t>
+    <t xml:space="preserve">10.11 *** (0.44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.13 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11 (0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46 *** (0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73 *** (0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49 *** (0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26 *** (0.03)</t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
@@ -104,100 +92,76 @@
     <t xml:space="preserve">Model 2</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04 *** (0.86)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.07 ** (0.03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.09 (0.15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88 ** (0.27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15 *** (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40 (0.31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23 (0.31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (0.19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29 (0.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74 ** (0.25)</t>
+    <t xml:space="preserve">0.71 (0.36)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (0.07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23 * (0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18 (0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 *** (0.02)</t>
   </si>
   <si>
     <t xml:space="preserve">Model 3</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72 ** (0.57)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.06 ** (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.23 * (0.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56 *** (0.14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 *** (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14 (0.17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62 *** (0.18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05 (0.14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08 (0.14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72 *** (0.16)</t>
+    <t xml:space="preserve">0.34 (0.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 *** (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.11 (0.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72 *** (0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34 *** (0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46 *** (0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 *** (0.02)</t>
   </si>
   <si>
     <t xml:space="preserve">Model 4</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47 (0.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00 (0.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39 * (0.16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05 ** (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41 * (0.19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00 (0.18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00 (0.18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.11 (0.18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28 (0.19)</t>
+    <t xml:space="preserve">1.08 ** (0.38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05 *** (0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42 ** (0.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29 * (0.15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 *** (0.02)</t>
   </si>
 </sst>
 </file>
@@ -665,16 +629,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -682,16 +646,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -699,16 +663,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -716,16 +680,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -733,16 +697,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -750,16 +714,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -767,16 +731,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -784,84 +748,84 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>60</v>
+      <c r="B10" s="9" t="n">
+        <v>6511</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>3388</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>5247</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>6116</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>61</v>
+      <c r="B11" s="7" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="n">
-        <v>2309</v>
-      </c>
-      <c r="C12" s="9" t="n">
-        <v>2248</v>
-      </c>
-      <c r="D12" s="9" t="n">
-        <v>2030</v>
-      </c>
-      <c r="E12" s="9" t="n">
-        <v>1414</v>
+      <c r="B12" s="7" t="n">
+        <v>35068.59</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>4219.8</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>6139.09</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>4348.09</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -869,89 +833,55 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>35129.63</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>4268.83</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>6191.61</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>4401.84</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="n">
-        <v>12358</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>1313.46</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>2324.4</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>1678.06</v>
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="n">
-        <v>12421.19</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>1370.64</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>2380.56</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>1730.6</v>
-      </c>
-    </row>
-    <row r="16" ht="NA" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="10" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D16" s="10" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E16" s="10" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" ht="NA" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
